--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C754"/>
+  <dimension ref="A1:C761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13179,6 +13179,125 @@
         </is>
       </c>
       <c r="C754" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>7.11200886836357</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>7.13564412230653</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>7.12046226168402</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>7.05472150124829</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">

--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">

--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C761"/>
+  <dimension ref="A1:C768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13303,6 +13303,125 @@
         </is>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>7.10264907579764</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>7.0774751721938</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>7.06004255645123</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>7.05065298652386</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>7.05065298652386</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>7.07571968014741</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">

--- a/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
+++ b/Data/F022.CDO2.STO.Z.NO.USD.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12682,7 +12682,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
